--- a/ОписаниеИзменений/Описание изменений по форме/0009 Распределение затрат и выручки по флотам автотранспорта.xlsx
+++ b/ОписаниеИзменений/Описание изменений по форме/0009 Распределение затрат и выручки по флотам автотранспорта.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\IGS_BSO\ОписаниеИзменений\Описание изменений по форме\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B801D2-1787-4ED4-9340-243F5846CFBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2D902A-CAF3-4B92-B8BD-598F220EAA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="48">
   <si>
     <t>Дата изменения</t>
   </si>
@@ -84,100 +84,95 @@
     <t>Описание</t>
   </si>
   <si>
-    <t>Документ РегламентнаяОперация</t>
-  </si>
-  <si>
-    <t>Роль игсЧтениеРезультатРаспределенияПоПроизводственнойПрограмме</t>
-  </si>
-  <si>
-    <t>Роль игсИзменениеРезультатРаспределенияПоПроизводственнойПрограмме</t>
-  </si>
-  <si>
-    <t>Общий модуль КонтрольЗатрат</t>
-  </si>
-  <si>
-    <t>Общий модуль ЗакрытиеМесяца</t>
-  </si>
-  <si>
-    <t>Общий модуль</t>
-  </si>
-  <si>
-    <t>Модуль объекта</t>
-  </si>
-  <si>
-    <t>Модуль менеджера</t>
-  </si>
-  <si>
-    <t>Документ АвановыйОтчет</t>
-  </si>
-  <si>
-    <t>Документ ТребованиеНакладная</t>
-  </si>
-  <si>
-    <t>Документ игсСправкаПТО</t>
-  </si>
-  <si>
-    <t>Перечисление ВидыРегламентныхОпераций</t>
-  </si>
-  <si>
-    <t>Изменена процедура "НомерГруппы"</t>
-  </si>
-  <si>
-    <t>Регистр накопления игсРаспределениеЗатратПоПроизводственнойПрограмме</t>
-  </si>
-  <si>
     <t>Подсистема игсНовыеОбъектыМетаданных</t>
   </si>
   <si>
     <t>Значение</t>
   </si>
   <si>
-    <t>Внесен новый объект "игсРаспределениеЗатратПоПроизводственнойПрограмме"</t>
+    <t>Распределение затрат и выручки по флотам автотранспорта</t>
   </si>
   <si>
-    <t>Создана новая роль для управления объектом результатРаспределенияПоПроиводственнойПрограмме</t>
+    <t>Документ игсИзменениеСоставаФлата</t>
   </si>
   <si>
-    <t>Созадана новая роль для управления объектом результатРаспределенияПоПроиводственнойПрограмме</t>
+    <t>Создан новый документ, управляющий регистром сведений "игсСоставФлата"</t>
   </si>
   <si>
-    <t>Изменена процедура СоздатьДетальныйСтатусПредыдущихГрупп</t>
+    <t>Справочник игсФлоты</t>
   </si>
   <si>
-    <t>Изменена процедура УсловиеВыполненияРегламентнойОперации</t>
+    <t>Создан новый справочник, отражающий сущность флотов</t>
   </si>
   <si>
-    <t>Изменена процедура СоздатьВременныеТаблицыСчетаГдеОбязательнаАналитика</t>
+    <t>Создан новый регистр сведений с переодичностью в пределах дня, отражает актуальный состав флота</t>
   </si>
   <si>
-    <t xml:space="preserve">Изменена процедура ОбработкаПроведения </t>
+    <t>РегистрСведений игсСоставФлота</t>
   </si>
   <si>
-    <t>Изменена процедура СформироватьДвижения() - установление булевого параметра "Записывать" для "игсЗатратыКРаспределениюПоПроизводственнойПрограмме" вынесен за цикл</t>
+    <t>РегистрНакопления игсВыгрузкаИЗатратПоФлотам</t>
   </si>
   <si>
-    <t>Создана новая процедура "игсРаспределениеЗатратПоПроизводственнойПрограмме"</t>
+    <t>Создан новый оборотный регистр, предназначенный для переодической привязки работающего оборудования к флотам</t>
   </si>
   <si>
-    <t>Создана новая процедура "игсТекстЗапросаРаспределенияЗатратПоПроизводственнойПрограмме"</t>
+    <t>План видов характеристик игсНастройкиМеханизмов</t>
   </si>
   <si>
-    <t>Изменена процедура "ДействияПослеПереходаС2БП"</t>
+    <t>Изменен, внесены 2 предопределенных элемента: ПроектГорныйТампонажныйФлот"</t>
   </si>
   <si>
-    <t>Изменена процедура "ОбработкаПроверкиЗаполнения"</t>
+    <t>Изменен, включены объекты:
+		Документ.игсИзменениеСоставаФлота
+		Справочник.игсФлоты
+		РегистрСведений.игсСоставФлота
+		РегистрНакоплений.игсВыручкаИЗатратыПоФлотам</t>
   </si>
   <si>
-    <t>Создана новая процедура "ОбработкаПроведенияЗаполнения"</t>
+    <t>Создана новая роль на изменение данных документа "игсИзменениеСоставаФлота"</t>
   </si>
   <si>
-    <t>Создан новый ревизит "игсРаспределениеЗатратПоПроизводственнойПрограмме"</t>
+    <t>Создана новая роль на чтение данных документа "игсИзменениеСоставаФлота"</t>
   </si>
   <si>
-    <t>Создан новый регистр накопления "игсРаспределениеЗатратПоПроизводственнойПрограмме"</t>
+    <t>Создана новая роль на чтение данных справочника "игсФлоты"</t>
   </si>
   <si>
-    <t>Распределение затрат и выручки по флотам автотранспорта</t>
+    <t>Создана новая роль на изменение данных справочника "игсФлоты"</t>
+  </si>
+  <si>
+    <t>Создана новая роль на чтение данных регистра сведений "игсСоставФлота"</t>
+  </si>
+  <si>
+    <t>Роль игсЧтениеИзменениеСоставаФлота</t>
+  </si>
+  <si>
+    <t>Роль игсИзменениеИзменениеСоставаФлота</t>
+  </si>
+  <si>
+    <t>Роль игсЧтениеФлоты</t>
+  </si>
+  <si>
+    <t>Роль игсИзменениеФлоты</t>
+  </si>
+  <si>
+    <t>Роль игсЧтениеСоставФлота</t>
+  </si>
+  <si>
+    <t>Роль игсИзменениеСоставФлота</t>
+  </si>
+  <si>
+    <t>Роль игсЧтениеВыручкаИЗатратыПоФлотам</t>
+  </si>
+  <si>
+    <t>Роль игсИзменениеВыручкаИЗатратыПоФлотам</t>
+  </si>
+  <si>
+    <t>Создана новая роль на чтение данных регистра накопления "игсВыгрузкаИЗатратыПоФлотам"</t>
+  </si>
+  <si>
+    <t>Создана новая роль на изменение данных регистра накопления "игсВыгрузкаИЗатратыПоФлотам"</t>
   </si>
 </sst>
 </file>
@@ -221,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -281,11 +276,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -332,11 +349,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -348,24 +380,27 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -650,15 +685,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54" style="3" customWidth="1"/>
-    <col min="2" max="2" width="45.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="45.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="32.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="52.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.7109375" style="3" customWidth="1"/>
     <col min="5" max="5" width="112" style="3" customWidth="1"/>
     <col min="6" max="26" width="8.7109375" style="3" customWidth="1"/>
@@ -697,10 +732,10 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="24">
-        <v>45909</v>
+      <c r="B2" s="19">
+        <v>45827</v>
       </c>
-      <c r="C2" s="25"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
@@ -857,10 +892,10 @@
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="17">
         <v>9</v>
       </c>
-      <c r="C7" s="27"/>
+      <c r="C7" s="18"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -951,8 +986,8 @@
       <c r="A10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>50</v>
+      <c r="B10" s="26" t="s">
+        <v>21</v>
       </c>
       <c r="C10" s="22"/>
       <c r="D10" s="2"/>
@@ -1038,11 +1073,11 @@
       <c r="Z12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1101,13 +1136,13 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B15" s="13"/>
       <c r="C15" s="13" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D15" s="12"/>
       <c r="E15" s="2"/>
@@ -1133,13 +1168,13 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B16" s="13"/>
       <c r="C16" s="13" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="D16" s="11"/>
       <c r="E16" s="2"/>
@@ -1167,13 +1202,11 @@
     </row>
     <row r="17" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>34</v>
-      </c>
+      <c r="B17" s="13"/>
       <c r="C17" s="13" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="2"/>
@@ -1199,15 +1232,13 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:27" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>24</v>
-      </c>
+      <c r="B18" s="5"/>
       <c r="C18" s="7" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="2"/>
@@ -1235,13 +1266,13 @@
     </row>
     <row r="19" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -1267,15 +1298,15 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:27" ht="45" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:27" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="2"/>
@@ -1302,15 +1333,13 @@
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:27" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
-      <c r="B21" s="14" t="s">
-        <v>25</v>
-      </c>
+      <c r="B21" s="14"/>
       <c r="C21" s="14" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1336,15 +1365,13 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:27" ht="75" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>19</v>
+    <row r="22" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>39</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>42</v>
+      <c r="B22" s="7"/>
+      <c r="C22" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1370,15 +1397,13 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>19</v>
+    <row r="23" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>40</v>
       </c>
-      <c r="B23" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="B23" s="7"/>
       <c r="C23" s="14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1404,15 +1429,13 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
-        <v>19</v>
+    <row r="24" spans="1:27" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>41</v>
       </c>
-      <c r="B24" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="B24" s="7"/>
       <c r="C24" s="14" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1439,14 +1462,12 @@
       <c r="Z24" s="2"/>
     </row>
     <row r="25" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>19</v>
+      <c r="A25" s="15" t="s">
+        <v>42</v>
       </c>
-      <c r="B25" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" s="15" t="s">
-        <v>45</v>
+      <c r="B25" s="5"/>
+      <c r="C25" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
@@ -1472,14 +1493,12 @@
       <c r="Z25" s="2"/>
     </row>
     <row r="26" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>28</v>
+      <c r="A26" s="15" t="s">
+        <v>43</v>
       </c>
-      <c r="B26" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>46</v>
+      <c r="B26" s="5"/>
+      <c r="C26" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
@@ -1505,14 +1524,12 @@
       <c r="Z26" s="2"/>
     </row>
     <row r="27" spans="1:27" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>29</v>
+      <c r="A27" s="2" t="s">
+        <v>44</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>47</v>
+      <c r="B27" s="7"/>
+      <c r="C27" s="14" t="s">
+        <v>46</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1537,15 +1554,13 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>30</v>
+    <row r="28" spans="1:27" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>45</v>
       </c>
-      <c r="B28" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>31</v>
+      <c r="B28" s="27"/>
+      <c r="C28" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
@@ -1570,14 +1585,10 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B29" s="16"/>
-      <c r="C29" s="15" t="s">
-        <v>48</v>
-      </c>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="33"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -1602,14 +1613,10 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:27" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="15" t="s">
-        <v>49</v>
-      </c>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30" s="30"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="29"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -1635,7 +1642,7 @@
       <c r="Z30" s="2"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
+      <c r="A31" s="16"/>
       <c r="B31" s="9"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1663,9 +1670,8 @@
       <c r="Z31" s="2"/>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
+      <c r="A32" s="16"/>
       <c r="B32" s="9"/>
-      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
@@ -1690,9 +1696,8 @@
       <c r="Z32" s="2"/>
     </row>
     <row r="33" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
+      <c r="A33" s="16"/>
       <c r="B33" s="9"/>
-      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -28736,17 +28741,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
